--- a/RawData/IGU_Lifetime_EU_BE_FR.xlsx
+++ b/RawData/IGU_Lifetime_EU_BE_FR.xlsx
@@ -1,55 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373CD79F-5759-42C6-87FE-E8B0D1047B2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6770172-CA3C-4991-ADA8-2D7252BE6A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="600" windowWidth="13125" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1635" windowWidth="16665" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Average_Lifetime" sheetId="1" r:id="rId1"/>
+    <sheet name="EU" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{4E97C139-F53A-4305-8F7B-92F6BC91E23F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Compagnie de Saint-Gobain, 1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{E5F47D11-5E1D-4E58-B09C-C19866B353D4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Compagnie de Saint-Gobain, 1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{7316D6F2-43CB-4853-9E56-C7D1723ED307}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Glaces et verres, 1964)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{2F0904BF-A8D3-4CE6-8B7E-DB903431121B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Bodart, 2002)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{D87D04F0-9CEF-468B-ACE3-8F69E1B7C80E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(EuroWindoor, 2009)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{F9503BDF-A4ED-413D-BD31-E5900BF3262A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Private discussion with glass industries. According to them, since 2000, average thickness is around 6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Source: Supplementary material of DOI 10.1016/j.resconrec.2012.11.008, Table S23</t>
+    <t>year</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Belgium</t>
+    <t>min. average lifetime, y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -68,14 +184,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,45 +524,495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
+      <c r="A2" s="3">
+        <v>1945</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
+      <c r="A3" s="3">
+        <v>1946</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
+      <c r="A4" s="3">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1948</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1949</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1951</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1952</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1953</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1954</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1955</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1956</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1957</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1958</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1959</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1961</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1962</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1964</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1966</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B77" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>